--- a/data/Instances/InstancesS/outputS-3.xlsx
+++ b/data/Instances/InstancesS/outputS-3.xlsx
@@ -458,112 +458,112 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -573,24 +573,24 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>39</t>
@@ -618,72 +618,72 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -709,9 +709,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -721,19 +719,21 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
@@ -743,9 +743,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
@@ -765,12 +763,8 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -778,9 +772,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -790,18 +782,14 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
@@ -832,22 +820,18 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -857,9 +841,7 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -892,38 +874,62 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>1</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
@@ -931,17 +937,31 @@
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
       <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>1</v>
+      </c>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
@@ -950,7 +970,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1007,56 +1027,100 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
       <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
@@ -1064,16 +1128,16 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -1087,9 +1151,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1100,9 +1162,7 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
@@ -1127,23 +1187,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1161,17 +1221,13 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
@@ -1190,86 +1246,128 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1</v>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
+      <c r="AR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
       <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
+      <c r="AX10" t="n">
+        <v>1</v>
+      </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1277,9 +1375,7 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
@@ -1289,17 +1385,13 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
@@ -1318,16 +1410,16 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -1337,13 +1429,13 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -1361,9 +1453,7 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
@@ -1381,11 +1471,13 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1398,11 +1490,15 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -1416,7 +1512,9 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
@@ -1438,16 +1536,14 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1461,12 +1557,8 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
@@ -1501,7 +1593,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1509,22 +1601,18 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1534,9 +1622,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1566,142 +1652,146 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
       <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="n">
         <v>1</v>
       </c>
-      <c r="AL16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
       <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
+      <c r="AU16" t="n">
+        <v>1</v>
+      </c>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>1</v>
+      </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
         <v>1</v>
       </c>
@@ -1709,54 +1799,38 @@
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1765,7 +1839,9 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
@@ -1779,7 +1855,9 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
@@ -1801,16 +1879,16 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1820,7 +1898,9 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1838,12 +1918,12 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
@@ -1862,25 +1942,31 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
@@ -1890,59 +1976,85 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
         <v>1</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
       <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
+      <c r="AU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1952,7 +2064,9 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -1967,17 +2081,13 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
@@ -1996,77 +2106,45 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="n">
-        <v>1</v>
-      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
@@ -2074,41 +2152,31 @@
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -2133,12 +2201,12 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
@@ -2160,7 +2228,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2168,12 +2236,8 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2181,9 +2245,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -2192,31 +2254,21 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
@@ -2233,16 +2285,16 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -2252,14 +2304,14 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -2269,9 +2321,7 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
@@ -2296,11 +2346,13 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -2313,7 +2365,9 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -2353,7 +2407,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -2361,22 +2415,18 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -2385,21 +2435,15 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
@@ -2412,7 +2456,9 @@
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
@@ -2426,7 +2472,9 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2439,7 +2487,9 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2479,121 +2529,77 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2603,7 +2609,9 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
@@ -2643,56 +2651,104 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="AA31" t="n">
+        <v>1</v>
+      </c>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>1</v>
+      </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
+      <c r="AK31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1</v>
+      </c>
       <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
       <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
+      <c r="AU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1</v>
+      </c>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
@@ -2700,16 +2756,16 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2723,9 +2779,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
@@ -2736,17 +2790,15 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
+      <c r="AH32" t="n">
+        <v>1</v>
+      </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
@@ -2772,16 +2824,16 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -2792,16 +2844,16 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
@@ -2830,12 +2882,12 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2845,7 +2897,9 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
@@ -2862,17 +2916,13 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
@@ -2898,16 +2948,16 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -2925,9 +2975,7 @@
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
@@ -2956,12 +3004,12 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2971,7 +3019,9 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -2986,10 +3036,10 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
@@ -3020,25 +3070,23 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>1</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
@@ -3049,9 +3097,7 @@
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
@@ -3076,7 +3122,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3090,7 +3136,9 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -3133,23 +3181,31 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -3160,45 +3216,69 @@
       <c r="U39" t="n">
         <v>1</v>
       </c>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+      <c r="X39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
+      <c r="AB39" t="n">
+        <v>1</v>
+      </c>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
+      <c r="AH39" t="n">
+        <v>1</v>
+      </c>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="n">
         <v>1</v>
       </c>
-      <c r="AL39" t="inlineStr"/>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
+      <c r="AO39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
+      <c r="AR39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
       <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
+      <c r="AU39" t="n">
+        <v>1</v>
+      </c>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
+      <c r="AX39" t="n">
+        <v>1</v>
+      </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3206,22 +3286,18 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -3229,24 +3305,18 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1</v>
-      </c>
+      <c r="X40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
@@ -3269,7 +3339,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3277,22 +3347,18 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -3301,21 +3367,15 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
@@ -3338,224 +3398,134 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1</v>
-      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1</v>
-      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
-      <c r="AX42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="n">
-        <v>1</v>
-      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
-      <c r="AX43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -3565,14 +3535,14 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
@@ -3582,9 +3552,7 @@
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
@@ -3609,23 +3577,23 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -3643,9 +3611,7 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
@@ -3670,16 +3636,16 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -3704,17 +3670,15 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="n">
+        <v>1</v>
+      </c>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
@@ -3733,45 +3697,43 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="n">
-        <v>1</v>
-      </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
@@ -3779,7 +3741,9 @@
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
@@ -3796,16 +3760,16 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -3830,12 +3794,12 @@
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
+      <c r="AH48" t="n">
+        <v>1</v>
+      </c>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
@@ -3850,86 +3814,124 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
-      <c r="AW48" t="inlineStr"/>
+      <c r="AW48" t="n">
+        <v>1</v>
+      </c>
       <c r="AX48" t="inlineStr"/>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="n">
-        <v>1</v>
-      </c>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>1</v>
+      </c>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
+      <c r="AK49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1</v>
+      </c>
       <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
+      <c r="AN49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
       <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr"/>
-      <c r="AV49" t="inlineStr"/>
+      <c r="AU49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1</v>
+      </c>
       <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="inlineStr"/>
+      <c r="AX49" t="n">
+        <v>1</v>
+      </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -3939,7 +3941,9 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
@@ -3954,12 +3958,12 @@
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
+      <c r="AH50" t="n">
+        <v>1</v>
+      </c>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
@@ -3981,23 +3985,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -4008,24 +4012,22 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="X51" t="n">
+        <v>1</v>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
@@ -4044,530 +4046,342 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
         <v>1</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1</v>
-      </c>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
         <v>1</v>
       </c>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1</v>
-      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
-      <c r="AX53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="n">
-        <v>1</v>
-      </c>
+      <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
-      <c r="AW54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="n">
-        <v>1</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="n">
-        <v>1</v>
-      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" t="n">
-        <v>1</v>
-      </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="inlineStr"/>
-      <c r="AU55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
-      <c r="AX55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
         <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
       <c r="V56" t="n">
         <v>1</v>
       </c>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>1</v>
       </c>
-      <c r="AB56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="n">
+        <v>1</v>
+      </c>
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1</v>
+      </c>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="n">
         <v>1</v>
       </c>
-      <c r="AP56" t="inlineStr"/>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
+      <c r="AR56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS56" t="n">
         <v>1</v>
       </c>
       <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="inlineStr"/>
-      <c r="AV56" t="inlineStr"/>
+      <c r="AU56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1</v>
+      </c>
       <c r="AW56" t="inlineStr"/>
-      <c r="AX56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="n">
         <v>1</v>
       </c>
@@ -4575,107 +4389,63 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="n">
+        <v>1</v>
+      </c>
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4721,11 +4491,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -4736,11 +4506,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -4755,7 +4525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -4766,7 +4536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4776,7 +4546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4785,28 +4555,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4815,58 +4585,58 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4875,43 +4645,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4920,43 +4690,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4965,13 +4735,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4980,28 +4750,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5016,22 +4786,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5040,28 +4810,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5070,28 +4840,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5100,7 +4870,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -5111,32 +4881,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5145,28 +4915,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5175,7 +4945,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -5186,11 +4956,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -5205,7 +4975,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
@@ -5216,11 +4986,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -5235,7 +5005,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -5246,47 +5016,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5295,13 +5065,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5310,43 +5080,43 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5355,28 +5125,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5385,28 +5155,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5415,28 +5185,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5445,88 +5215,88 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5535,22 +5305,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5371,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7766869496199291</v>
+        <v>0.04908840637437947</v>
       </c>
     </row>
     <row r="3">
@@ -5612,11 +5382,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9667822606378873</v>
+        <v>0.03746670493623297</v>
       </c>
     </row>
     <row r="4">
@@ -5627,11 +5397,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9696647578442681</v>
+        <v>0.0927946535140606</v>
       </c>
     </row>
     <row r="5">
@@ -5646,58 +5416,58 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01857506988849038</v>
+        <v>0.9649147057588732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.004774138872258827</v>
+        <v>0.8163734300436192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01506737655339346</v>
+        <v>0.9781324606001938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1539016246889563</v>
+        <v>0.7481829187805217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5706,13 +5476,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5418210148204906</v>
+        <v>0.003683058648689858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5721,28 +5491,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03949591193285306</v>
+        <v>0.9846490967024554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9695963891279914</v>
+        <v>0.9880205781845371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5751,43 +5521,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.05580587502516286</v>
+        <v>0.9261771802705658</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7299928321921515</v>
+        <v>0.005044094087197405</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001758781045814661</v>
+        <v>0.9996234556215431</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5796,43 +5566,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01981499880545238</v>
+        <v>0.5454093914586922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0136680460360377</v>
+        <v>0.3850561033144907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9865534924290464</v>
+        <v>0.796634409321496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5841,13 +5611,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7135099649298908</v>
+        <v>0.6630780966264378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5856,13 +5626,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01412084670641121</v>
+        <v>0.9895646415680732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5871,28 +5641,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6143777306293604</v>
+        <v>0.7158346937335203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8226117890935862</v>
+        <v>0.02854382938117529</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5901,13 +5671,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8552075849179188</v>
+        <v>0.3113281129048037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5916,58 +5686,58 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7947184698450659</v>
+        <v>0.8033654055812157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04507372533981383</v>
+        <v>0.7318665787725964</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5689134905635993</v>
+        <v>0.01237533071482581</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03817548423304987</v>
+        <v>0.9494623392528662</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5976,7 +5746,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5374353636547833</v>
+        <v>0.3334282586487612</v>
       </c>
     </row>
     <row r="28">
@@ -5991,28 +5761,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.008205479703129282</v>
+        <v>0.7187878315678766</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7469218814521785</v>
+        <v>0.03853567692552229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6021,13 +5791,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7681962711041666</v>
+        <v>0.6803962103503273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6036,22 +5806,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2030213111201482</v>
+        <v>0.9669863560520764</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7272884895251953</v>
+        <v>0.8455782464230432</v>
       </c>
     </row>
     <row r="33">
@@ -6062,11 +5832,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.04934339804499539</v>
+        <v>0.9855735027161754</v>
       </c>
     </row>
     <row r="34">
@@ -6077,11 +5847,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2995319799936389</v>
+        <v>0.4830872746108911</v>
       </c>
     </row>
     <row r="35">
@@ -6096,7 +5866,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6684072357874599</v>
+        <v>0.9818317724630062</v>
       </c>
     </row>
     <row r="36">
@@ -6111,7 +5881,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9651619561223258</v>
+        <v>0.9961020029497615</v>
       </c>
     </row>
     <row r="37">
@@ -6122,32 +5892,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7167575666983309</v>
+        <v>0.01037858953259042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9858288604592661</v>
+        <v>0.01462886901302729</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6156,13 +5926,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7134778080289557</v>
+        <v>0.9740682111495772</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6171,13 +5941,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.534398838793323</v>
+        <v>0.577477644652038</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6186,13 +5956,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02518892395570059</v>
+        <v>0.0005286853998079544</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6201,43 +5971,43 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.771088230007377</v>
+        <v>0.03906495849732239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9190023306797929</v>
+        <v>0.9795028280283843</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8309963182316078</v>
+        <v>0.02076243511616171</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6246,28 +6016,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.03000680015394451</v>
+        <v>0.009282974197311517</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9851275271712864</v>
+        <v>0.9292389140509866</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6276,13 +6046,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.6803813728187736</v>
+        <v>0.05921931385363418</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6291,28 +6061,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9960361104917513</v>
+        <v>0.5970572589352101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8551311517895046</v>
+        <v>0.9734393453627637</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6321,13 +6091,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.004472865162416184</v>
+        <v>0.6871373563371</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6336,7 +6106,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.02847131073007339</v>
+        <v>0.7925673836061069</v>
       </c>
     </row>
   </sheetData>
